--- a/jadex-applications-micro/EvalHSU_all_tuned.xlsx
+++ b/jadex-applications-micro/EvalHSU_all_tuned.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t># of Services</t>
   </si>
@@ -47,9 +47,6 @@
     <t>SP-multi Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname true'</t>
   </si>
   <si>
-    <t>Search Time P2P-multi)</t>
-  </si>
-  <si>
     <t>Creation Time (SP-single)</t>
   </si>
   <si>
@@ -69,6 +66,12 @@
   </si>
   <si>
     <t>P2P-single Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000 -fixedname false'</t>
+  </si>
+  <si>
+    <t>Superpeer (P2P) vs. Peer-to-Peer Discovery Approach</t>
+  </si>
+  <si>
+    <t>Search Time (P2P-multi)</t>
   </si>
 </sst>
 </file>
@@ -145,51 +148,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>Tabelle1!$G$2</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>SP-multi Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname true'
-SP-single Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname false'
-P2P-multi Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000 -fixedname true'</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -212,7 +171,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="sysDot"/>
               <a:round/>
@@ -1090,8 +1049,1190 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Time (SP-multi)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>15.395849999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.1379865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.273261000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0866635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.398709499999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.2593295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.886502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.252071000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.188284000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.9481635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.315418999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.617494000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.647848500000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.903292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.678642500000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.408681000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.127135500000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.0504435</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.468362999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.185350999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.592931999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.223696500000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.3024415</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.933572499999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.596598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.216291499999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.165188499999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80.111298500000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.521298999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83.600263499999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.297895499999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.830412499999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>87.624312000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.766405500000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.385805000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.952929499999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>97.984896000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85.056382499999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100.89786599999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82.525405000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.153824</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74.340641000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.657892500000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88.258816499999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>100.7543075</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87.7592195</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100.44886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>119.8960335</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93.101400499999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>126.209546</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>97.418578999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103.842804</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>94.840237500000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>102.815016</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>101.5370625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>101.846763</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>114.801232</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>129.39277100000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>136.59197900000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>141.67270350000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>123.3393945</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>121.8843025</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>128.13197450000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>147.882249</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>123.013418</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>134.34064050000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>135.7191875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>136.65459300000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>136.78275550000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>143.73399800000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>142.73231150000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>143.355378</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>156.68245450000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>153.38837150000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>152.1409195</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>157.753208</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>161.91729599999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>164.01319749999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>162.08182450000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>171.80101149999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>190.54666800000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>174.431557</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>204.8013785</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>189.69924499999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>183.19084899999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>195.44262800000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>198.50766150000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>193.66038599999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>195.49571125</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>197.33103650000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>201.15507049999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>203.4402815</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>210.98438350000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>224.8183885</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>215.79690600000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>227.93679900000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>235.33147550000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>249.94735750000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>233.977271</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>239.0365865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF54-486C-B248-FC407F0B2126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Time (P2P-multi)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$2:$L$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>64.278172499999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.851089000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.938412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.208225999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.427524000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.315639000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.792946999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.230735500000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.503996000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.373341000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.450839000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.371874499999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.648435000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.9748515</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.049783500000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.022875499999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.847936000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.610235500000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.709875499999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.615514000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.535302999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95.220324500000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104.44959299999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>109.4679965</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114.452966</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>118.9351125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>114.3473865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120.7092895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>122.481854</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>134.23330150000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123.02353549999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.96121400000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141.62680599999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>144.65987250000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>142.85534150000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>145.72871900000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>156.694332</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159.17970550000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>166.4538455</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>186.04912400000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>178.157636</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>184.21174550000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>186.06979949999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>197.09656100000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>206.73011249999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>211.9722855</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>219.58823949999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>247.545861</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241.10506599999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>232.71926099999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>240.09091549999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>274.97177199999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>295.83825849999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>312.02052950000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>342.873085</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>365.44218749999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>370.66867050000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>355.92609449999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>404.02155599999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>431.29906849999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F069-40C4-9A60-586D9B71F670}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$S$1</c:f>
@@ -1432,659 +2573,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Search Time (SP-multi)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>820</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$E$2:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>15.395849999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.1379865</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.273261000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.0866635</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.398709499999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.2593295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.886502</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.252071000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50.188284000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44.9481635</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46.315418999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50.617494000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>54.647848500000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>48.903292</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54.678642500000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56.408681000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>62.127135500000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52.0504435</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>54.468362999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50.185350999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>63.592931999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>53.223696500000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>57.3024415</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>59.933572499999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>75.596598</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>70.216291499999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>71.165188499999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>80.111298500000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58.521298999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>83.600263499999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>75.297895499999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>84.830412499999994</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>87.624312000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>81.766405500000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>86.385805000000005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>69.952929499999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>97.984896000000006</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>85.056382499999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100.89786599999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>82.525405000000006</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>72.153824</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>74.340641000000005</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>93.657892500000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>88.258816499999995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>100.7543075</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>87.7592195</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>100.44886</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>119.8960335</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>93.101400499999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>126.209546</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>97.418578999999994</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>103.842804</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>94.840237500000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>102.815016</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>101.5370625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>101.846763</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>114.801232</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>129.39277100000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>136.59197900000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>141.67270350000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>123.3393945</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>121.8843025</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>128.13197450000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>147.882249</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>123.013418</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>134.34064050000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>135.7191875</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>136.65459300000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>136.78275550000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>143.73399800000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>142.73231150000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>143.355378</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>156.68245450000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>153.38837150000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>152.1409195</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>157.753208</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>161.91729599999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>164.01319749999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>162.08182450000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>171.80101149999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>190.54666800000001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>174.431557</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>204.8013785</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>189.69924499999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>183.19084899999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>195.44262800000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>198.50766150000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>193.66038599999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>195.49571125</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>197.33103650000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>201.15507049999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>203.4402815</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>210.98438350000001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>224.8183885</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>215.79690600000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>227.93679900000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>235.33147550000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>249.94735750000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>233.977271</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>239.0365865</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FF54-486C-B248-FC407F0B2126}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$Z$1</c:f>
@@ -2325,537 +2815,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-83B4-479C-BDAF-3117EF850527}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Search Time P2P-multi)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>820</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$L$2:$L$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>64.278172499999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.851089000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.938412</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64.208225999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.427524000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.315639000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>61.792946999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.230735500000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>66.503996000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62.373341000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.450839000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>62.371874499999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70.648435000000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>72.9748515</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>79.049783500000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80.022875499999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>77.847936000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>79.610235500000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>88.709875499999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>91.615514000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>97.535302999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>95.220324500000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>104.44959299999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>109.4679965</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>114.452966</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>118.9351125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>114.3473865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>120.7092895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>122.481854</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>134.23330150000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>123.02353549999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>130.96121400000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>141.62680599999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>144.65987250000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>142.85534150000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>145.72871900000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>156.694332</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>159.17970550000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>166.4538455</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>186.04912400000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>178.157636</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>184.21174550000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>186.06979949999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>197.09656100000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>206.73011249999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>211.9722855</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>219.58823949999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>247.545861</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>241.10506599999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>232.71926099999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>240.09091549999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>274.97177199999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>295.83825849999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>312.02052950000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>342.873085</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>365.44218749999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>370.66867050000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>355.92609449999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>404.02155599999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>431.29906849999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F069-40C4-9A60-586D9B71F670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2886,7 +2845,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2919,7 +2878,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2931,7 +2890,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2957,7 +2916,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2969,7 +2928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="496078704"/>
@@ -3007,7 +2966,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3030,8 +2989,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.893939393939394E-2"/>
-              <c:y val="0.33629642240665869"/>
+              <c:x val="1.0198135198135198E-2"/>
+              <c:y val="0.10086098697122321"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3047,7 +3006,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3059,7 +3018,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3079,7 +3038,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3091,7 +3050,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="496077064"/>
@@ -3115,7 +3074,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3129,11 +3088,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time for service</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> search (Seconds)</a:t>
+                  <a:t>Time for service search (Seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3152,7 +3107,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3164,12 +3119,12 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3184,7 +3139,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3196,7 +3151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="181700192"/>
@@ -3214,7 +3169,7 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="238226800"/>
@@ -3248,7 +3203,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3260,7 +3215,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3288,9 +3243,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3342,7 +3297,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3450,11 +3405,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3465,11 +3415,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3501,9 +3446,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3559,22 +3501,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3744,6 +3687,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3812,19 +3766,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3861,16 +3816,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>310515</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165734</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>645795</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>118109</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4157,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4195,16 +4150,16 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -4216,16 +4171,16 @@
         <v>0</v>
       </c>
       <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
         <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
@@ -4237,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
         <v>13</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -4348,6 +4303,9 @@
       <c r="F3">
         <v>20</v>
       </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
       <c r="H3">
         <v>0</v>
       </c>
